--- a/HAUsched.xlsx
+++ b/HAUsched.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
   <si>
     <t>09:10AM</t>
   </si>
@@ -59,6 +74,9 @@
   </si>
   <si>
     <t>07:55PM</t>
+  </si>
+  <si>
+    <t>koko ni</t>
   </si>
 </sst>
 </file>
@@ -82,12 +100,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,125 +437,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" customHeight="1">
+      <c r="A2" s="2">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1">
+      <c r="A3" s="3">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" customHeight="1">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" customHeight="1">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" customHeight="1">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HAUsched.xlsx
+++ b/HAUsched.xlsx
@@ -31,49 +31,49 @@
     <t>FRI</t>
   </si>
   <si>
-    <t>09:10AM</t>
-  </si>
-  <si>
-    <t>11:10AM</t>
-  </si>
-  <si>
-    <t>12:45PM</t>
-  </si>
-  <si>
-    <t>01:00PM</t>
-  </si>
-  <si>
-    <t>01:30PM</t>
-  </si>
-  <si>
-    <t>03:30PM</t>
-  </si>
-  <si>
-    <t>03:45PM</t>
-  </si>
-  <si>
-    <t>04:00PM</t>
-  </si>
-  <si>
-    <t>04:30PM</t>
-  </si>
-  <si>
-    <t>05:50PM</t>
-  </si>
-  <si>
-    <t>06:05PM</t>
-  </si>
-  <si>
-    <t>06:50PM</t>
-  </si>
-  <si>
-    <t>06:55PM</t>
-  </si>
-  <si>
-    <t>07:35PM</t>
-  </si>
-  <si>
-    <t>07:55PM</t>
+    <t>09:10am</t>
+  </si>
+  <si>
+    <t>11:10am</t>
+  </si>
+  <si>
+    <t>12:45pm</t>
+  </si>
+  <si>
+    <t>01:00pm</t>
+  </si>
+  <si>
+    <t>01:30pm</t>
+  </si>
+  <si>
+    <t>03:30pm</t>
+  </si>
+  <si>
+    <t>03:45pm</t>
+  </si>
+  <si>
+    <t>04:00pm</t>
+  </si>
+  <si>
+    <t>04:30pm</t>
+  </si>
+  <si>
+    <t>05:50pm</t>
+  </si>
+  <si>
+    <t>06:05pm</t>
+  </si>
+  <si>
+    <t>06:50pm</t>
+  </si>
+  <si>
+    <t>06:55pm</t>
+  </si>
+  <si>
+    <t>07:35pm</t>
+  </si>
+  <si>
+    <t>07:55pm</t>
   </si>
   <si>
     <t>koko ni</t>

--- a/HAUsched.xlsx
+++ b/HAUsched.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>MON</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>koko ni</t>
+  </si>
+  <si>
+    <t>6UHCI</t>
+  </si>
+  <si>
+    <t>6DRAW2</t>
+  </si>
+  <si>
+    <t>6CWRITE</t>
+  </si>
+  <si>
+    <t>4CONWORLD</t>
+  </si>
+  <si>
+    <t>7PE3</t>
+  </si>
+  <si>
+    <t>6DSALGO</t>
+  </si>
+  <si>
+    <t>9PHYSICS-A</t>
+  </si>
+  <si>
+    <t>6APPDEV</t>
   </si>
 </sst>
 </file>
@@ -132,12 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -473,14 +500,18 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1">
       <c r="A4" s="2">
@@ -489,19 +520,37 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1">
@@ -511,26 +560,37 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1">
       <c r="A11" s="2">
@@ -539,25 +599,59 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1">
@@ -567,20 +661,42 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E4:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HAUsched.xlsx
+++ b/HAUsched.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>MON</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>07:55pm</t>
-  </si>
-  <si>
-    <t>koko ni</t>
   </si>
   <si>
     <t>6UHCI</t>
@@ -124,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +136,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,22 +155,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,187 +528,184 @@
       <c r="A2" s="2">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1">
       <c r="A4" s="2">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1">
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
